--- a/biology/Botanique/Anemone_transsilvanica/Anemone_transsilvanica.xlsx
+++ b/biology/Botanique/Anemone_transsilvanica/Anemone_transsilvanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hepatica transsilvanica · Hépatique de Transylvanie
-Anemone transsilvanica (syn. Hepatica transsilvanica), l'Hépatique de Transylvanie, est une espèce appartenant à la famille des Ranunculaceae qui pousse uniquement en Roumanie à l'état sauvage. Elle est tétraploïde avec un nombre de chromosomes de 2n=28. Elle apprécie les forêts d'altitude. Elle possède des feuilles crénelées, entaillées de trois à cinq lobes et de grosses fleurs bleutées avec une tige d'environ 4 cm. Elle développe huit pétales et des involucres à deux ou trois dents[4].
+Anemone transsilvanica (syn. Hepatica transsilvanica), l'Hépatique de Transylvanie, est une espèce appartenant à la famille des Ranunculaceae qui pousse uniquement en Roumanie à l'état sauvage. Elle est tétraploïde avec un nombre de chromosomes de 2n=28. Elle apprécie les forêts d'altitude. Elle possède des feuilles crénelées, entaillées de trois à cinq lobes et de grosses fleurs bleutées avec une tige d'environ 4 cm. Elle développe huit pétales et des involucres à deux ou trois dents.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1865
@@ -549,7 +563,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est endémique de Roumanie où elle pousse dans les forêts montagneuses.
 </t>
@@ -580,12 +596,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1850 par le botaniste hongrois Johann Mihály Fuss (es) (1814-1883) sous le basionyme de Hepatica transsilvanica Fuss.[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1850 par le botaniste hongrois Johann Mihály Fuss (es) (1814-1883) sous le basionyme de Hepatica transsilvanica Fuss..
 L'épithète spécifique transsilvanica signifie « de Transylvanie », une région de la Roumanie dont le nom veut dire « au-delà des forêts ».
-En 1858 elle a été recombinée dans le genre Anemone par le botaniste hongrois János A. Heuffel (es) (1800-1857) : Anemone transsilvanica (Fuss) Heuff.[5],[2].
-En classification phylogénétique APG III (2009)[6], comme en classification classique de Cronquist (1981)[7], cette plante fait partie de la famille des Ranunculaceae.
+En 1858 elle a été recombinée dans le genre Anemone par le botaniste hongrois János A. Heuffel (es) (1800-1857) : Anemone transsilvanica (Fuss) Heuff.,.
+En classification phylogénétique APG III (2009), comme en classification classique de Cronquist (1981), cette plante fait partie de la famille des Ranunculaceae.
 </t>
         </is>
       </c>
